--- a/test_data/OpenEMRData.xlsx
+++ b/test_data/OpenEMRData.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationConcepts2\automation_workspace\HealthRecordAutomation\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C831F3-ECC6-46AE-8CD9-978D913A3229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68774D06-7D28-498A-A8E1-78698D483987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{16FF570B-A930-4B24-85B7-74BD43D37979}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{16FF570B-A930-4B24-85B7-74BD43D37979}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="validLoginTest" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="invalidLoginTest" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Password</t>
   </si>
@@ -59,6 +59,30 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>accountant</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ExpectedError</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>john1122</t>
+  </si>
+  <si>
+    <t>Invalid username or password</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>peter232</t>
   </si>
 </sst>
 </file>
@@ -446,10 +470,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7240F4-4E94-4A03-9AE8-C6B7A6437B87}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +515,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -498,12 +533,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBE748A-BF77-4A6E-9EAE-F6206464A077}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>